--- a/5. WS/1. Bộ phận bảo hành/1. Thực hiện sửa chữa bảo hành/nam2023/Thang5/4.TraBH/TBH230531_GiaThanh.xlsx
+++ b/5. WS/1. Bộ phận bảo hành/1. Thực hiện sửa chữa bảo hành/nam2023/Thang5/4.TraBH/TBH230531_GiaThanh.xlsx
@@ -763,6 +763,48 @@
     <xf numFmtId="0" fontId="9" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -816,48 +858,6 @@
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -1219,7 +1219,7 @@
   <dimension ref="A1:M63"/>
   <sheetViews>
     <sheetView tabSelected="1" view="pageBreakPreview" zoomScale="115" zoomScaleNormal="85" zoomScaleSheetLayoutView="115" workbookViewId="0">
-      <selection activeCell="B8" sqref="B8:I8"/>
+      <selection activeCell="C12" sqref="C12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="16.5" x14ac:dyDescent="0.25"/>
@@ -1239,124 +1239,124 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:13" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="59"/>
-      <c r="B1" s="60"/>
-      <c r="C1" s="60"/>
-      <c r="D1" s="60"/>
-      <c r="E1" s="61"/>
-      <c r="F1" s="50" t="s">
+      <c r="A1" s="73"/>
+      <c r="B1" s="74"/>
+      <c r="C1" s="74"/>
+      <c r="D1" s="74"/>
+      <c r="E1" s="75"/>
+      <c r="F1" s="64" t="s">
         <v>9</v>
       </c>
-      <c r="G1" s="51"/>
-      <c r="H1" s="51"/>
-      <c r="I1" s="52"/>
+      <c r="G1" s="65"/>
+      <c r="H1" s="65"/>
+      <c r="I1" s="66"/>
     </row>
     <row r="2" spans="1:13" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="62"/>
-      <c r="B2" s="63"/>
-      <c r="C2" s="63"/>
-      <c r="D2" s="63"/>
-      <c r="E2" s="64"/>
-      <c r="F2" s="53" t="s">
+      <c r="A2" s="76"/>
+      <c r="B2" s="77"/>
+      <c r="C2" s="77"/>
+      <c r="D2" s="77"/>
+      <c r="E2" s="78"/>
+      <c r="F2" s="67" t="s">
         <v>22</v>
       </c>
-      <c r="G2" s="54"/>
-      <c r="H2" s="54"/>
-      <c r="I2" s="55"/>
+      <c r="G2" s="68"/>
+      <c r="H2" s="68"/>
+      <c r="I2" s="69"/>
     </row>
     <row r="3" spans="1:13" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="62"/>
-      <c r="B3" s="63"/>
-      <c r="C3" s="63"/>
-      <c r="D3" s="63"/>
-      <c r="E3" s="64"/>
-      <c r="F3" s="53" t="s">
+      <c r="A3" s="76"/>
+      <c r="B3" s="77"/>
+      <c r="C3" s="77"/>
+      <c r="D3" s="77"/>
+      <c r="E3" s="78"/>
+      <c r="F3" s="67" t="s">
         <v>17</v>
       </c>
-      <c r="G3" s="54"/>
-      <c r="H3" s="54"/>
-      <c r="I3" s="55"/>
+      <c r="G3" s="68"/>
+      <c r="H3" s="68"/>
+      <c r="I3" s="69"/>
     </row>
     <row r="4" spans="1:13" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="65"/>
-      <c r="B4" s="66"/>
-      <c r="C4" s="66"/>
-      <c r="D4" s="66"/>
-      <c r="E4" s="67"/>
-      <c r="F4" s="56" t="s">
+      <c r="A4" s="79"/>
+      <c r="B4" s="80"/>
+      <c r="C4" s="80"/>
+      <c r="D4" s="80"/>
+      <c r="E4" s="81"/>
+      <c r="F4" s="70" t="s">
         <v>18</v>
       </c>
-      <c r="G4" s="57"/>
-      <c r="H4" s="57"/>
-      <c r="I4" s="58"/>
+      <c r="G4" s="71"/>
+      <c r="H4" s="71"/>
+      <c r="I4" s="72"/>
     </row>
     <row r="5" spans="1:13" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="74" t="s">
+      <c r="A5" s="61" t="s">
         <v>6</v>
       </c>
-      <c r="B5" s="75"/>
-      <c r="C5" s="75"/>
-      <c r="D5" s="75"/>
-      <c r="E5" s="75"/>
-      <c r="F5" s="75"/>
-      <c r="G5" s="75"/>
-      <c r="H5" s="75"/>
-      <c r="I5" s="76"/>
+      <c r="B5" s="62"/>
+      <c r="C5" s="62"/>
+      <c r="D5" s="62"/>
+      <c r="E5" s="62"/>
+      <c r="F5" s="62"/>
+      <c r="G5" s="62"/>
+      <c r="H5" s="62"/>
+      <c r="I5" s="63"/>
     </row>
     <row r="6" spans="1:13" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="5"/>
-      <c r="B6" s="70" t="s">
+      <c r="B6" s="57" t="s">
         <v>25</v>
       </c>
-      <c r="C6" s="70"/>
-      <c r="D6" s="70"/>
-      <c r="E6" s="70"/>
-      <c r="F6" s="70"/>
-      <c r="G6" s="70"/>
-      <c r="H6" s="70"/>
-      <c r="I6" s="71"/>
+      <c r="C6" s="57"/>
+      <c r="D6" s="57"/>
+      <c r="E6" s="57"/>
+      <c r="F6" s="57"/>
+      <c r="G6" s="57"/>
+      <c r="H6" s="57"/>
+      <c r="I6" s="58"/>
     </row>
     <row r="7" spans="1:13" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="6"/>
-      <c r="B7" s="68" t="s">
+      <c r="B7" s="55" t="s">
         <v>20</v>
       </c>
-      <c r="C7" s="68"/>
-      <c r="D7" s="68"/>
-      <c r="E7" s="68"/>
-      <c r="F7" s="68"/>
-      <c r="G7" s="68"/>
-      <c r="H7" s="68"/>
-      <c r="I7" s="69"/>
+      <c r="C7" s="55"/>
+      <c r="D7" s="55"/>
+      <c r="E7" s="55"/>
+      <c r="F7" s="55"/>
+      <c r="G7" s="55"/>
+      <c r="H7" s="55"/>
+      <c r="I7" s="56"/>
     </row>
     <row r="8" spans="1:13" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="6"/>
-      <c r="B8" s="70" t="s">
+      <c r="B8" s="57" t="s">
         <v>21</v>
       </c>
-      <c r="C8" s="70"/>
-      <c r="D8" s="70"/>
-      <c r="E8" s="70"/>
-      <c r="F8" s="70"/>
-      <c r="G8" s="70"/>
-      <c r="H8" s="70"/>
-      <c r="I8" s="71"/>
+      <c r="C8" s="57"/>
+      <c r="D8" s="57"/>
+      <c r="E8" s="57"/>
+      <c r="F8" s="57"/>
+      <c r="G8" s="57"/>
+      <c r="H8" s="57"/>
+      <c r="I8" s="58"/>
       <c r="M8" s="1" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="9" spans="1:13" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="7"/>
-      <c r="B9" s="72" t="s">
+      <c r="B9" s="59" t="s">
         <v>7</v>
       </c>
-      <c r="C9" s="72"/>
-      <c r="D9" s="72"/>
-      <c r="E9" s="72"/>
-      <c r="F9" s="72"/>
-      <c r="G9" s="72"/>
-      <c r="H9" s="72"/>
-      <c r="I9" s="73"/>
+      <c r="C9" s="59"/>
+      <c r="D9" s="59"/>
+      <c r="E9" s="59"/>
+      <c r="F9" s="59"/>
+      <c r="G9" s="59"/>
+      <c r="H9" s="59"/>
+      <c r="I9" s="60"/>
       <c r="L9" s="1" t="s">
         <v>11</v>
       </c>
@@ -1480,26 +1480,26 @@
         <v>19</v>
       </c>
       <c r="F15" s="12"/>
-      <c r="G15" s="77" t="s">
+      <c r="G15" s="50" t="s">
         <v>24</v>
       </c>
-      <c r="H15" s="77"/>
-      <c r="I15" s="77"/>
+      <c r="H15" s="50"/>
+      <c r="I15" s="50"/>
     </row>
     <row r="16" spans="1:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="79" t="s">
+      <c r="A16" s="52" t="s">
         <v>16</v>
       </c>
-      <c r="B16" s="79"/>
-      <c r="C16" s="79"/>
-      <c r="D16" s="79"/>
-      <c r="E16" s="79"/>
+      <c r="B16" s="52"/>
+      <c r="C16" s="52"/>
+      <c r="D16" s="52"/>
+      <c r="E16" s="52"/>
       <c r="F16" s="21"/>
-      <c r="G16" s="81" t="s">
+      <c r="G16" s="54" t="s">
         <v>8</v>
       </c>
-      <c r="H16" s="81"/>
-      <c r="I16" s="81"/>
+      <c r="H16" s="54"/>
+      <c r="I16" s="54"/>
     </row>
     <row r="17" spans="1:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="10"/>
@@ -1543,19 +1543,19 @@
       <c r="I20" s="18"/>
     </row>
     <row r="21" spans="1:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="80" t="s">
+      <c r="A21" s="53" t="s">
         <v>15</v>
       </c>
-      <c r="B21" s="80"/>
-      <c r="C21" s="80"/>
-      <c r="D21" s="80"/>
-      <c r="E21" s="80"/>
+      <c r="B21" s="53"/>
+      <c r="C21" s="53"/>
+      <c r="D21" s="53"/>
+      <c r="E21" s="53"/>
       <c r="F21" s="27"/>
-      <c r="G21" s="80" t="s">
+      <c r="G21" s="53" t="s">
         <v>23</v>
       </c>
-      <c r="H21" s="80"/>
-      <c r="I21" s="80"/>
+      <c r="H21" s="53"/>
+      <c r="I21" s="53"/>
     </row>
     <row r="22" spans="1:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" s="28"/>
@@ -1569,28 +1569,28 @@
       <c r="I22" s="32"/>
     </row>
     <row r="24" spans="1:9" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="B24" s="78"/>
-      <c r="C24" s="78"/>
+      <c r="B24" s="51"/>
+      <c r="C24" s="51"/>
     </row>
     <row r="63" ht="20.25" customHeight="1" x14ac:dyDescent="0.25"/>
   </sheetData>
   <mergeCells count="16">
+    <mergeCell ref="F1:I1"/>
+    <mergeCell ref="F2:I2"/>
+    <mergeCell ref="F3:I3"/>
+    <mergeCell ref="F4:I4"/>
+    <mergeCell ref="A1:E4"/>
+    <mergeCell ref="B7:I7"/>
+    <mergeCell ref="B8:I8"/>
+    <mergeCell ref="B9:I9"/>
+    <mergeCell ref="A5:I5"/>
+    <mergeCell ref="B6:I6"/>
     <mergeCell ref="G15:I15"/>
     <mergeCell ref="B24:C24"/>
     <mergeCell ref="A16:E16"/>
     <mergeCell ref="A21:E21"/>
     <mergeCell ref="G16:I16"/>
     <mergeCell ref="G21:I21"/>
-    <mergeCell ref="B7:I7"/>
-    <mergeCell ref="B8:I8"/>
-    <mergeCell ref="B9:I9"/>
-    <mergeCell ref="A5:I5"/>
-    <mergeCell ref="B6:I6"/>
-    <mergeCell ref="F1:I1"/>
-    <mergeCell ref="F2:I2"/>
-    <mergeCell ref="F3:I3"/>
-    <mergeCell ref="F4:I4"/>
-    <mergeCell ref="A1:E4"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="1.5" bottom="1" header="0" footer="0"/>
   <pageSetup paperSize="9" scale="90" orientation="landscape" r:id="rId1"/>
